--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -576,7 +576,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
